--- a/D.Magna/Wang_2023/Wang_data.xlsx
+++ b/D.Magna/Wang_2023/Wang_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="14505" windowHeight="16215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="14505" windowHeight="16215"/>
   </bookViews>
   <sheets>
     <sheet name="PFBA" sheetId="1" r:id="rId1"/>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>2.6</v>
       </c>
       <c r="E2" s="13">
-        <v>1.4E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F2" s="13">
         <v>1.6</v>
@@ -1562,7 +1562,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1790,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -2632,7 +2632,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2670,13 +2670,13 @@
         <v>77.36</v>
       </c>
       <c r="C2" s="11">
-        <v>6.5240000000000003E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D2" s="11">
         <v>30.09</v>
       </c>
       <c r="E2" s="11">
-        <v>8.9709999999999996E-4</v>
+        <v>0.01</v>
       </c>
       <c r="F2" s="11">
         <v>42.98</v>

--- a/D.Magna/Wang_2023/Wang_data.xlsx
+++ b/D.Magna/Wang_2023/Wang_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="14505" windowHeight="16215"/>
+    <workbookView xWindow="0" yWindow="492" windowWidth="14508" windowHeight="16212" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PFBA" sheetId="1" r:id="rId1"/>
@@ -488,17 +488,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="2" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>0.56000000000000005</v>
       </c>
@@ -538,7 +538,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1.5</v>
       </c>
@@ -558,7 +558,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -578,7 +578,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -598,7 +598,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -618,7 +618,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>7</v>
       </c>
@@ -638,7 +638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>14</v>
       </c>
@@ -658,7 +658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="13">
@@ -674,7 +674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17">
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -702,7 +702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -714,47 +714,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -773,14 +773,14 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -800,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>2.5309999999999999E-2</v>
       </c>
@@ -820,7 +820,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.25359999999999999</v>
       </c>
@@ -840,7 +840,7 @@
         <v>84.32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0.43240000000000001</v>
       </c>
@@ -860,7 +860,7 @@
         <v>137.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>0.9204</v>
       </c>
@@ -880,7 +880,7 @@
         <v>215.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1.486</v>
       </c>
@@ -900,7 +900,7 @@
         <v>298.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1.974</v>
       </c>
@@ -920,7 +920,7 @@
         <v>351.7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2.976</v>
       </c>
@@ -940,7 +940,7 @@
         <v>450.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>4.9580000000000002</v>
       </c>
@@ -960,7 +960,7 @@
         <v>584.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>6.9939999999999998</v>
       </c>
@@ -980,7 +980,7 @@
         <v>625.20000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>13.98</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>645.79999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
@@ -1025,14 +1025,14 @@
       <selection activeCell="A2" sqref="A2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>2.8199999999999999E-2</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>470.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>8.4589999999999999E-2</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>627.20000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0.22559999999999999</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>85.52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>0.50749999999999995</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>327.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>0.98680000000000001</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>598.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1.466</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>869.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1.974</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2.9889999999999999</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>4.9619999999999997</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>6.992</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>13.96</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1284,7 +1284,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1309,14 +1309,14 @@
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>6.3130000000000006E-2</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>3.105</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.3977</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>7.0460000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0.55349999999999999</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.0329999999999999</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>16.36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1.5409999999999999</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2.06</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>23.77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>3.0310000000000001</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>29.03</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>5.0140000000000002</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>23.19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7.0330000000000004</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>14.07</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="11">
@@ -1565,15 +1565,15 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>0.34160000000000001</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>38.46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.54079999999999995</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0.9677</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>179.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.5649999999999999</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>363.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2.0209999999999999</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>482.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>3.0169999999999999</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>581.20000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5.0090000000000003</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>863.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7.03</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>14</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="6"/>
@@ -1794,20 +1794,20 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="9"/>
-    <col min="3" max="3" width="12.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="9"/>
-    <col min="5" max="5" width="12.875" style="9" customWidth="1"/>
-    <col min="6" max="8" width="10.875" style="9"/>
-    <col min="9" max="9" width="23.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="26.375" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="9"/>
+    <col min="1" max="1" width="13.8984375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="9"/>
+    <col min="3" max="3" width="12.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" style="9"/>
+    <col min="5" max="5" width="12.8984375" style="9" customWidth="1"/>
+    <col min="6" max="8" width="10.8984375" style="9"/>
+    <col min="9" max="9" width="23.8984375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="26.3984375" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="10.8984375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>0.50370000000000004</v>
       </c>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1.0069999999999999</v>
       </c>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1.5109999999999999</v>
       </c>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2.0430000000000001</v>
       </c>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>3.0779999999999998</v>
       </c>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>5.0090000000000003</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>6.9960000000000004</v>
       </c>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>13.96</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="I9"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
@@ -2010,7 +2010,7 @@
       <c r="I10"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2025,7 +2025,7 @@
       <c r="I11"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2040,7 +2040,7 @@
       <c r="I12"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2051,7 +2051,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -2062,55 +2062,55 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I20"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I21"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
@@ -2128,13 +2128,13 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>0.35449999999999998</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>24.43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.51819999999999999</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>101.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.0089999999999999</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>256.60000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.5269999999999999</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>427.7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2.0449999999999999</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>610.79999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>3.0270000000000001</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>781.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5.0449999999999999</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7.0640000000000001</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>14.05</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11">
@@ -2350,7 +2350,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2362,7 +2362,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
@@ -2379,14 +2379,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>4.4729999999999999E-2</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>5.0609999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.29330000000000001</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>12.41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0.53910000000000002</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.0009999999999999</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>20.97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1.5509999999999999</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1.976</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2.9990000000000001</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>31.94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>5.0430000000000001</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>28.82</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7.0019999999999998</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>24.02</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>13.97</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>21.14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2618,7 +2618,7 @@
         <v>20.47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
@@ -2635,14 +2635,14 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>8.6940000000000003E-2</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>42.98</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1.9730000000000001</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>85.96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3.0579999999999998</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>176.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4.9960000000000004</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>305.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>7.0469999999999997</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>438.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>14.02</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>558.70000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
@@ -2798,7 +2798,7 @@
         <v>623.20000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
@@ -2814,7 +2814,7 @@
         <v>881.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="11">
@@ -2830,7 +2830,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2842,7 +2842,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2867,14 +2867,14 @@
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>0.51370000000000005</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>23.72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.97099999999999997</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>40.659999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.4830000000000001</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>84.68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.994</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>138.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2.988</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>281.10000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4.9729999999999999</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>372.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6.9610000000000003</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>487.7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>13.98</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>636.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3066,7 +3066,7 @@
         <v>876.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3078,7 +3078,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3090,7 +3090,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
@@ -3103,18 +3103,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>5.8229999999999997E-2</v>
       </c>
@@ -3151,10 +3151,10 @@
         <v>2.903E-2</v>
       </c>
       <c r="F2" s="7">
-        <v>3127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.1269999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.96940000000000004</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>10.72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.4970000000000001</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>34.840000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.964</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>39.76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2.9670000000000001</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>57.65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4.9580000000000002</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>84.91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6.9779999999999998</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>13.98</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -3310,7 +3310,7 @@
         <v>110.1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="11">
@@ -3326,7 +3326,7 @@
         <v>96.84</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3351,14 +3351,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>5.6809999999999999E-2</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>4.9269999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.22670000000000001</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>7.9180000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0.4894</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>17.420000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.0149999999999999</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>21.11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1.4810000000000001</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1.976</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>40.65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>3.0009999999999999</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>48.56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>5.0019999999999998</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>52.26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>38.71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>13.99</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>34.31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="6"/>
@@ -3586,7 +3586,7 @@
         <v>33.61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="E13" s="2"/>
@@ -3605,14 +3605,14 @@
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>2.8199999999999999E-2</v>
       </c>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.14099999999999999</v>
       </c>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0.53569999999999995</v>
       </c>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.0149999999999999</v>
       </c>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1.466</v>
       </c>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2.9889999999999999</v>
       </c>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>4.9909999999999997</v>
       </c>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7.0209999999999999</v>
       </c>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>14.04</v>
       </c>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="11">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>

--- a/D.Magna/Wang_2023/Wang_data.xlsx
+++ b/D.Magna/Wang_2023/Wang_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsir\Documents\GitHub\PFAS_biokinetics_models\D.Magna\Wang_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\PFAS_biokinetics_models\D.Magna\Wang_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD390D52-6343-4450-905F-AA6FB74EF044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="492" windowWidth="14508" windowHeight="16212" activeTab="6"/>
+    <workbookView xWindow="3825" yWindow="1035" windowWidth="24975" windowHeight="10455" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PFBA" sheetId="1" r:id="rId1"/>
@@ -30,16 +31,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -69,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -125,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -151,13 +142,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -166,15 +154,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,20 +470,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="2" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -518,243 +503,243 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>3.4</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>2.6</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>0.01</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1.5</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0.37</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>3.3</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>0.13</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>2.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="12">
         <v>13</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>5.8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>3.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>17</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>1.5</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="12">
         <v>10</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0.48</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>13</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>7</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>3</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>18</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>1.5</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>14</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>12</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>5</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>15</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="13">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="12">
         <v>7</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>14</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>3</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15">
         <v>14</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>13</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="13">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="12">
         <v>7.1</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="12">
         <v>14</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -766,21 +751,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -800,215 +785,215 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>2.5309999999999999E-2</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>16.45</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>0.12670000000000001</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>67.87</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>5.0750000000000003E-2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>26.74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>0.25359999999999999</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>129.6</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>0.2273</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>146</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>7.467E-2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>84.32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>0.43240000000000001</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>178.9</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0.50939999999999996</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>189.2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.27910000000000001</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>137.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>0.9204</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>232.4</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>0.99650000000000005</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>271.5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>0.45700000000000002</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>215.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1.486</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>283.8</v>
       </c>
       <c r="C6" s="7">
         <v>1.484</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>341.4</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>0.9698</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>298.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1.974</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>343.4</v>
       </c>
       <c r="C7" s="7">
         <v>1.9970000000000001</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>413.4</v>
       </c>
       <c r="E7" s="7">
         <v>1.5089999999999999</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>351.7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2.976</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>427.8</v>
       </c>
       <c r="C8" s="7">
         <v>2.9729999999999999</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>522.4</v>
       </c>
       <c r="E8" s="7">
         <v>1.996</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>450.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>4.9580000000000002</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>495.6</v>
       </c>
       <c r="C9" s="7">
         <v>4.9809999999999999</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>588.20000000000005</v>
       </c>
       <c r="E9" s="7">
         <v>2.9710000000000001</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>584.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6.9939999999999998</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>516.20000000000005</v>
       </c>
       <c r="C10" s="7">
         <v>6.9909999999999997</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>600.5</v>
       </c>
       <c r="E10" s="7">
         <v>4.9539999999999997</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>625.20000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>13.98</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>508</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>13.98</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>592.29999999999995</v>
       </c>
       <c r="E11" s="7">
         <v>7.0149999999999997</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>645.79999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>13.97</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>647.79999999999995</v>
       </c>
     </row>
@@ -1018,21 +1003,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1052,111 +1037,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>42.76</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>57.01</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>0.28199999999999997</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>470.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>8.4589999999999999E-2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>242.2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>8.4589999999999999E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>277.89999999999998</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>0.4793</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>627.20000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>0.22559999999999999</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>470.3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0.25380000000000003</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>520.20000000000005</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>5.6390000000000003E-2</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>85.52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>0.50749999999999995</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>613</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>0.4793</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>748.3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>327.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>0.98680000000000001</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>777.3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>0.98680000000000001</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>891.3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>0.25380000000000003</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>598.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1.466</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>891.7</v>
       </c>
       <c r="C7" s="7">
@@ -1165,14 +1150,14 @@
       <c r="D7" s="8">
         <v>1041</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>0.4511</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>869.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1.974</v>
       </c>
@@ -1185,14 +1170,14 @@
       <c r="D8" s="8">
         <v>1320</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>0.95860000000000001</v>
       </c>
       <c r="F8" s="8">
         <v>1076</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2.9889999999999999</v>
       </c>
@@ -1212,7 +1197,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>4.9619999999999997</v>
       </c>
@@ -1232,7 +1217,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>6.992</v>
       </c>
@@ -1252,14 +1237,14 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>13.96</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>14</v>
       </c>
       <c r="B12" s="8">
         <v>1708</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>13.98</v>
       </c>
       <c r="D12" s="8">
@@ -1272,7 +1257,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1284,12 +1269,12 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>13.93</v>
       </c>
       <c r="F14" s="8">
@@ -1302,21 +1287,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1336,219 +1321,219 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>6.3130000000000006E-2</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0.04</v>
       </c>
       <c r="B2" s="7">
         <v>2.3879999999999999</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>6.3310000000000005E-2</v>
       </c>
       <c r="D2" s="7">
         <v>2.5070000000000001</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>9.3899999999999997E-2</v>
       </c>
       <c r="F2" s="7">
         <v>3.105</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>0.3977</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0.3</v>
       </c>
       <c r="B3" s="7">
         <v>7.6440000000000001</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>0.2465</v>
       </c>
       <c r="D3" s="7">
         <v>5.8520000000000003</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>0.15920000000000001</v>
       </c>
       <c r="F3" s="7">
         <v>7.0460000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>0.55349999999999999</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="8">
         <v>12.54</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0.28010000000000002</v>
       </c>
       <c r="D4" s="7">
         <v>8.4789999999999992</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.3135</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>10.99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="B5" s="11">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
         <v>15.53</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>0.55430000000000001</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>13.14</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>0.55910000000000004</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>16.36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>1.5409999999999999</v>
-      </c>
-      <c r="B6" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="8">
         <v>17.559999999999999</v>
       </c>
       <c r="C6" s="7">
         <v>1.0029999999999999</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>15.53</v>
       </c>
       <c r="E6" s="7">
         <v>1.0049999999999999</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>16.37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>2.06</v>
-      </c>
-      <c r="B7" s="11">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="B7" s="8">
         <v>26.88</v>
       </c>
       <c r="C7" s="7">
         <v>1.544</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>19.71</v>
       </c>
       <c r="E7" s="7">
         <v>1.5209999999999999</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>23.77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>3.0310000000000001</v>
-      </c>
-      <c r="B8" s="11">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="B8" s="8">
         <v>20.56</v>
       </c>
       <c r="C8" s="7">
         <v>2.06</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>27.12</v>
       </c>
       <c r="E8" s="7">
         <v>2.004</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>29.03</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>5.0140000000000002</v>
-      </c>
-      <c r="B9" s="11">
+        <v>5.0090000000000003</v>
+      </c>
+      <c r="B9" s="8">
         <v>15.92</v>
       </c>
       <c r="C9" s="7">
         <v>3.0619999999999998</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>21.52</v>
       </c>
       <c r="E9" s="7">
         <v>3.0350000000000001</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>23.19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>7.0330000000000004</v>
-      </c>
-      <c r="B10" s="11">
+        <v>7.03</v>
+      </c>
+      <c r="B10" s="8">
         <v>15.34</v>
       </c>
       <c r="C10" s="7">
         <v>5.0469999999999997</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>18.07</v>
       </c>
       <c r="E10" s="7">
         <v>5.0490000000000004</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>19.62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>14.07</v>
-      </c>
-      <c r="B11" s="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8">
         <v>14.32</v>
       </c>
       <c r="C11" s="7">
         <v>7.0659999999999998</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>17.489999999999998</v>
       </c>
       <c r="E11" s="7">
         <v>7.0380000000000003</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>19.04</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>13.98</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>15.99</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>13.99</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>18.739999999999998</v>
       </c>
     </row>
@@ -1558,22 +1543,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1593,188 +1578,188 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>0.34160000000000001</v>
-      </c>
-      <c r="B2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="B2" s="8">
         <v>64.099999999999994</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>0.37</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>64.099999999999994</v>
       </c>
-      <c r="E2" s="11">
-        <v>0.1139</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E2" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F2" s="8">
         <v>38.46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>0.54079999999999995</v>
-      </c>
-      <c r="B3" s="11">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="8">
         <v>128.19999999999999</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>0.59770000000000001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>128.19999999999999</v>
       </c>
-      <c r="E3" s="11">
-        <v>0.34160000000000001</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="8">
         <v>106.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>0.9677</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
         <v>265</v>
       </c>
       <c r="C4" s="7">
         <v>1.5369999999999999</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>448.7</v>
       </c>
-      <c r="E4" s="11">
-        <v>0.56930000000000003</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="E4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="8">
         <v>179.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="B5" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="B5" s="8">
         <v>333.3</v>
       </c>
       <c r="C5" s="7">
         <v>1.992</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>555.6</v>
       </c>
       <c r="E5" s="7">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>363.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2.0209999999999999</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>427.4</v>
       </c>
       <c r="C6" s="7">
         <v>3.0169999999999999</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>670.9</v>
       </c>
       <c r="E6" s="7">
-        <v>1.5089999999999999</v>
-      </c>
-      <c r="F6" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="8">
         <v>482.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3.0169999999999999</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>542.70000000000005</v>
       </c>
       <c r="C7" s="7">
         <v>5.0659999999999998</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>769.2</v>
       </c>
       <c r="E7" s="7">
-        <v>2.0489999999999999</v>
-      </c>
-      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
         <v>581.20000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5.0090000000000003</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>675.2</v>
       </c>
       <c r="C8" s="7">
         <v>7.0590000000000002</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>974.4</v>
       </c>
       <c r="E8" s="7">
-        <v>3.0169999999999999</v>
-      </c>
-      <c r="F8" s="11">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8">
         <v>863.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7.03</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>880.3</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>14.09</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>995.7</v>
       </c>
       <c r="E9" s="7">
-        <v>5.0659999999999998</v>
+        <v>5</v>
       </c>
       <c r="F9" s="8">
         <v>1021</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>14</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>897.4</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="F10" s="8">
         <v>1141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>14</v>
       </c>
       <c r="F11" s="8">
@@ -1787,27 +1772,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="9"/>
-    <col min="3" max="3" width="12.09765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" style="9"/>
-    <col min="5" max="5" width="12.8984375" style="9" customWidth="1"/>
-    <col min="6" max="8" width="10.8984375" style="9"/>
-    <col min="9" max="9" width="23.8984375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="26.3984375" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="10.8984375" style="9"/>
+    <col min="1" max="1" width="13.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="9"/>
+    <col min="3" max="3" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="9"/>
+    <col min="5" max="5" width="12.875" style="9" customWidth="1"/>
+    <col min="6" max="8" width="10.875" style="9"/>
+    <col min="9" max="9" width="23.875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="26.375" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1827,290 +1812,290 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>0.50370000000000004</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>346.5</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>0.36380000000000001</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>134.5</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>5.5969999999999999E-2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>7.1150000000000002</v>
       </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1.0069999999999999</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>445.9</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0.50370000000000004</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>438.3</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>0.1399</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>99</v>
       </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>1.5109999999999999</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>531.1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>1.5669999999999999</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>764.2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.27989999999999998</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>219.2</v>
       </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>2.0430000000000001</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>651.6</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>2.0430000000000001</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>1033</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0.50370000000000004</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>466.6</v>
       </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>3.0779999999999998</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>998.7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>3.0779999999999998</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>1394</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>1.0069999999999999</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>622.4</v>
       </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>5.0090000000000003</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>1248</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>4.9809999999999999</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>1735</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>1.5389999999999999</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>813.6</v>
       </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>6.9960000000000004</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>1497</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>7.0519999999999996</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>1850</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>2.0150000000000001</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>1139</v>
       </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>13.96</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>1517</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>13.96</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>1878</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>2.9940000000000002</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>1479</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="13"/>
       <c r="I9"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>5.0090000000000003</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>1869</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="13"/>
       <c r="I10"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11">
         <v>6.968</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>1963</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="13"/>
       <c r="I11"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12">
         <v>13.99</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>1984</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="13"/>
       <c r="I12"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="13"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I20"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I21"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
@@ -2121,20 +2106,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -2154,131 +2139,131 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>0.35449999999999998</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>109.9</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>0.13639999999999999</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>61.07</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>5.4550000000000001E-2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>24.43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>0.51819999999999999</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>211.7</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>0.32729999999999998</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>150.6</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>0.1636</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>101.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.0089999999999999</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>354.1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0.54549999999999998</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>354.3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>256.60000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.5269999999999999</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>488.3</v>
       </c>
       <c r="C5" s="7">
         <v>1.036</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>488.6</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>0.54549999999999998</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>427.7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2.0449999999999999</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>642.9</v>
       </c>
       <c r="C6" s="7">
         <v>1.5269999999999999</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>639.1</v>
       </c>
       <c r="E6" s="7">
         <v>1.036</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>610.79999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3.0270000000000001</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>756.5</v>
       </c>
       <c r="C7" s="7">
         <v>1.9910000000000001</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>842.7</v>
       </c>
       <c r="E7" s="7">
         <v>1.5269999999999999</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>781.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5.0449999999999999</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>934.8</v>
       </c>
       <c r="C8" s="7">
@@ -2294,7 +2279,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7.0640000000000001</v>
       </c>
@@ -2314,8 +2299,8 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>14.05</v>
       </c>
       <c r="B10" s="8">
@@ -2334,10 +2319,10 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>14.05</v>
       </c>
       <c r="D11" s="8">
@@ -2350,19 +2335,19 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>13.99</v>
       </c>
       <c r="F12" s="8">
         <v>1386</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
@@ -2372,21 +2357,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2406,219 +2391,219 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>4.4729999999999999E-2</v>
       </c>
       <c r="B2" s="7">
         <v>9.6389999999999993</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>0.16600000000000001</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>10</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>3.7819999999999999E-2</v>
       </c>
       <c r="F2" s="7">
         <v>5.0609999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>0.29330000000000001</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>14.34</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>0.29360000000000003</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>14.58</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>0.10929999999999999</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>12.41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>0.53910000000000002</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>17.23</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0.53869999999999996</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>16.989999999999998</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.26750000000000002</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>17.23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.0009999999999999</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>23.38</v>
       </c>
       <c r="C5" s="7">
         <v>1.0329999999999999</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>24.83</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>0.4844</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>20.97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1.5509999999999999</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>27.48</v>
       </c>
       <c r="C6" s="7">
         <v>1.522</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>28.45</v>
       </c>
       <c r="E6" s="7">
         <v>1.0069999999999999</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>27.48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1.976</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>29.41</v>
       </c>
       <c r="C7" s="7">
         <v>2.0379999999999998</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>30.26</v>
       </c>
       <c r="E7" s="7">
         <v>1.524</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>29.89</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2.9990000000000001</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>27.49</v>
       </c>
       <c r="C8" s="7">
         <v>2.996</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>25.33</v>
       </c>
       <c r="E8" s="7">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>31.94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5.0430000000000001</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>21.85</v>
       </c>
       <c r="C9" s="7">
         <v>5.0439999999999996</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>22.81</v>
       </c>
       <c r="E9" s="7">
         <v>3.0619999999999998</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>28.82</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7.0019999999999998</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>19.940000000000001</v>
       </c>
       <c r="C10" s="7">
         <v>7.0030000000000001</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>20.420000000000002</v>
       </c>
       <c r="E10" s="7">
         <v>5.016</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>24.02</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>13.97</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>18.3</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>14.06</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>18.670000000000002</v>
       </c>
       <c r="E11" s="7">
         <v>7.0039999999999996</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>21.14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>14</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>20.47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
@@ -2628,21 +2613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2662,165 +2647,165 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>8.6940000000000003E-2</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>77.36</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>0.01</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>30.09</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>0.01</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>42.98</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1.9730000000000001</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>455.6</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>0.48880000000000001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>257.89999999999998</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>85.96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3.0579999999999998</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>627.5</v>
       </c>
       <c r="C4" s="7">
         <v>1.0309999999999999</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>326.60000000000002</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.28810000000000002</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>176.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4.9960000000000004</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>803.7</v>
       </c>
       <c r="C5" s="7">
         <v>1.516</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>399.7</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>0.46129999999999999</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>305.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>7.0469999999999997</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>859.6</v>
       </c>
       <c r="C6" s="7">
         <v>2.0030000000000001</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>550.1</v>
       </c>
       <c r="E6" s="7">
         <v>1.0049999999999999</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>438.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>14.02</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>859.6</v>
       </c>
       <c r="C7" s="7">
         <v>3.0030000000000001</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>756.4</v>
       </c>
       <c r="E7" s="7">
         <v>1.5189999999999999</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>558.70000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>4.97</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>924.1</v>
       </c>
       <c r="E8" s="7">
         <v>2.004</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>623.20000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
         <v>6.992</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>971.3</v>
       </c>
       <c r="E9" s="7">
         <v>2.9769999999999999</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>881.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>14.02</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>975.6</v>
       </c>
       <c r="E10" s="7">
@@ -2830,7 +2815,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2842,12 +2827,12 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>13.97</v>
       </c>
       <c r="F12" s="8">
@@ -2860,21 +2845,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2894,167 +2879,167 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>0.51370000000000005</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>88.02</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>0.51470000000000005</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>108.4</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>5.7880000000000001E-2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>23.72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>0.97099999999999997</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>182.8</v>
       </c>
       <c r="C3" s="7">
         <v>1.0309999999999999</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>254</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>8.6980000000000002E-2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>40.659999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.4830000000000001</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>230.2</v>
       </c>
       <c r="C4" s="7">
         <v>1.5429999999999999</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>311.5</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.28720000000000001</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>84.68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.994</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>277.5</v>
       </c>
       <c r="C5" s="7">
         <v>2.0299999999999998</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>423.3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>0.43120000000000003</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>138.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2.988</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>338.3</v>
       </c>
       <c r="C6" s="7">
         <v>2.9980000000000002</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>562</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>0.97570000000000001</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>281.10000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4.9729999999999999</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>426</v>
       </c>
       <c r="C7" s="7">
         <v>5.0419999999999998</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>693.8</v>
       </c>
       <c r="E7" s="7">
         <v>1.4890000000000001</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>372.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6.9610000000000003</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>571.29999999999995</v>
       </c>
       <c r="C8" s="7">
         <v>7.03</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>839.1</v>
       </c>
       <c r="E8" s="7">
         <v>2.0329999999999999</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>487.7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>13.98</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>573.1</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>14.02</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>837.5</v>
       </c>
       <c r="E9" s="7">
         <v>3.03</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>636.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3062,11 +3047,11 @@
       <c r="E10" s="7">
         <v>4.9660000000000002</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>876.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3078,19 +3063,19 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>14</v>
       </c>
       <c r="F12" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
@@ -3100,21 +3085,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3134,207 +3119,207 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>5.8229999999999997E-2</v>
       </c>
       <c r="B2" s="7">
         <v>5.3609999999999998</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>2.8760000000000001E-2</v>
       </c>
       <c r="D2" s="7">
         <v>4.4660000000000002</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>2.903E-2</v>
       </c>
       <c r="F2" s="7">
         <v>3.1269999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>0.96940000000000004</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>44.7</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>0.29070000000000001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>29.04</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>0.11650000000000001</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>10.72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.4970000000000001</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>75.09</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0.55649999999999999</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>33.96</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.28960000000000002</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>34.840000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.964</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>111.3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>0.99850000000000005</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>47.83</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>0.49609999999999999</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>39.76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2.9670000000000001</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>135.9</v>
       </c>
       <c r="C6" s="7">
         <v>1.496</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>79.55</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>0.99650000000000005</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>57.65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4.9580000000000002</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>112.3</v>
       </c>
       <c r="C7" s="7">
         <v>1.9630000000000001</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>117.1</v>
       </c>
       <c r="E7" s="7">
         <v>1.4950000000000001</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>84.91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6.9779999999999998</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>91.93</v>
       </c>
       <c r="C8" s="7">
         <v>2.9670000000000001</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>138.6</v>
       </c>
       <c r="E8" s="7">
         <v>1.962</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>121.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>13.98</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>83.42</v>
       </c>
       <c r="C9" s="7">
         <v>4.9880000000000004</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>110.6</v>
       </c>
       <c r="E9" s="7">
         <v>2.9660000000000002</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
         <v>6.9770000000000003</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>95.06</v>
       </c>
       <c r="E10" s="7">
         <v>4.9880000000000004</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>110.1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>13.97</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>90.56</v>
       </c>
       <c r="E11" s="7">
         <v>6.9470000000000001</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>96.84</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>13.97</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>95.03</v>
       </c>
     </row>
@@ -3344,21 +3329,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3378,191 +3363,191 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>5.6809999999999999E-2</v>
       </c>
       <c r="B2" s="7">
         <v>3.871</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>0.114</v>
       </c>
       <c r="D2" s="7">
         <v>7.0380000000000003</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="F2" s="7">
         <v>4.9269999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>0.22670000000000001</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>16.72</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>0.25530000000000003</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>18.12</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>0.1429</v>
       </c>
       <c r="F3" s="7">
         <v>7.9180000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>0.4894</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>19.71</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0.45879999999999999</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>22.17</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.28499999999999998</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>17.420000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.0149999999999999</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>25.69</v>
       </c>
       <c r="C5" s="7">
         <v>1.5089999999999999</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>35.54</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>0.48870000000000002</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>21.11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1.4810000000000001</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>32.380000000000003</v>
       </c>
       <c r="C6" s="7">
         <v>2.0030000000000001</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>45.04</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>0.98440000000000005</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>27.98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1.976</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>42.05</v>
       </c>
       <c r="C7" s="7">
         <v>2.97</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>48.39</v>
       </c>
       <c r="E7" s="7">
         <v>1.4770000000000001</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>40.65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>3.0009999999999999</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>45.22</v>
       </c>
       <c r="C8" s="7">
         <v>4.9720000000000004</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>38.01</v>
       </c>
       <c r="E8" s="7">
         <v>1.972</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>48.56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5.0019999999999998</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>35.89</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>32.549999999999997</v>
       </c>
       <c r="E9" s="7">
         <v>2.9689999999999999</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>52.26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>31.85</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>13.99</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>32.020000000000003</v>
       </c>
       <c r="E10" s="7">
         <v>5.0010000000000003</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>38.71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>13.99</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>30.79</v>
       </c>
       <c r="C11" s="8"/>
@@ -3570,23 +3555,23 @@
       <c r="E11" s="7">
         <v>6.9989999999999997</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>34.31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>13.99</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>33.61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="E13" s="2"/>
@@ -3598,21 +3583,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3632,176 +3617,176 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>33.81</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>5.6390000000000003E-2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>42.27</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>50.71</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>0.14099999999999999</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>88.77</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>8.4589999999999999E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>92.98</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>0.1128</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>126.8</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>0.53569999999999995</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>236.8</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0.28199999999999997</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>164.9</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.31019999999999998</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>219.8</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.0149999999999999</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>359.4</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>0.4793</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>266.3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>0.4793</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>333.9</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1.466</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>427.2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>0.98680000000000001</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>372.1</v>
       </c>
       <c r="E6" s="7">
         <v>1.0149999999999999</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>422.8</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2.9889999999999999</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>672.7</v>
       </c>
       <c r="C7" s="7">
         <v>1.494</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>490.6</v>
       </c>
       <c r="E7" s="7">
         <v>1.494</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>570.79999999999995</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4.9909999999999997</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>859.2</v>
       </c>
       <c r="C8" s="7">
         <v>1.974</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>562.5</v>
       </c>
       <c r="E8" s="7">
         <v>2.0019999999999998</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>714.6</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7.0209999999999999</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>994.9</v>
       </c>
       <c r="C9" s="7">
         <v>2.9889999999999999</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>723.4</v>
       </c>
       <c r="E9" s="7">
         <v>3.0169999999999999</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>968.5</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>14.04</v>
       </c>
       <c r="B10" s="8">
@@ -3810,7 +3795,7 @@
       <c r="C10" s="7">
         <v>4.9909999999999997</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>935.2</v>
       </c>
       <c r="E10" s="7">
@@ -3821,7 +3806,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
@@ -3838,16 +3823,16 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>14.01</v>
       </c>
       <c r="D12" s="8">
         <v>1094</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>14.01</v>
       </c>
       <c r="F12" s="8">
@@ -3855,7 +3840,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
